--- a/coordinates_sample/101京兆尹/101京兆尹.xlsx
+++ b/coordinates_sample/101京兆尹/101京兆尹.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="54">
   <si>
     <t>county_han</t>
   </si>
@@ -88,9 +88,6 @@
     <t>半嘉名</t>
   </si>
   <si>
-    <t>10103</t>
-  </si>
-  <si>
     <t>蓝田县</t>
   </si>
   <si>
@@ -121,9 +118,6 @@
     <t>10107</t>
   </si>
   <si>
-    <t>10108</t>
-  </si>
-  <si>
     <t>南陵县</t>
   </si>
   <si>
@@ -131,9 +125,6 @@
   </si>
   <si>
     <t>奉明县</t>
-  </si>
-  <si>
-    <t>10110</t>
   </si>
   <si>
     <t>霸陵县</t>
@@ -218,7 +209,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -263,6 +254,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -537,9 +531,9 @@
       <selection activeCell="A2" sqref="A2:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -568,7 +562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -597,7 +591,7 @@
         <v>70623</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -626,18 +620,18 @@
         <v>70725</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
       <c r="E4">
         <v>109.14697</v>
@@ -655,18 +649,18 @@
         <v>70749</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>110.0956</v>
@@ -684,18 +678,18 @@
         <v>70428</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
       </c>
       <c r="E6">
         <v>109.85004000000001</v>
@@ -713,18 +707,18 @@
         <v>70427</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
         <v>28</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>29</v>
       </c>
       <c r="E7">
         <v>110.73206</v>
@@ -742,18 +736,18 @@
         <v>83069</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>109.06288000000001</v>
@@ -771,18 +765,18 @@
         <v>70802</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
         <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>38</v>
       </c>
       <c r="E9">
         <v>109.06952</v>
@@ -800,18 +794,18 @@
         <v>70646</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
         <v>39</v>
-      </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
       </c>
       <c r="E10">
         <v>108.92207999999999</v>
@@ -840,7 +834,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I4"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -853,19 +847,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>45</v>
-      </c>
-      <c r="E1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" t="s">
-        <v>48</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -874,7 +868,7 @@
         <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
@@ -885,92 +879,92 @@
         <v>17</v>
       </c>
       <c r="C2">
-        <v>34.5963882</v>
+        <v>34.602376399999997</v>
       </c>
       <c r="D2">
-        <v>110.2888664</v>
+        <v>110.2531233</v>
       </c>
       <c r="E2">
         <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
+        <v>49</v>
+      </c>
+      <c r="H2" s="1">
+        <v>10103</v>
       </c>
       <c r="I2" t="s">
         <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C3">
-        <v>34.543878200000002</v>
+        <v>34.517081400000002</v>
       </c>
       <c r="D3">
-        <v>109.55194640000001</v>
+        <v>109.52199229999999</v>
       </c>
       <c r="E3">
         <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
+        <v>49</v>
+      </c>
+      <c r="H3" s="1">
+        <v>10108</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C4">
-        <v>34.330018299999999</v>
+        <v>34.360760399999997</v>
       </c>
       <c r="D4">
-        <v>108.8564604</v>
+        <v>108.817961</v>
       </c>
       <c r="E4">
         <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
+        <v>49</v>
+      </c>
+      <c r="H4" s="1">
+        <v>10110</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -984,7 +978,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -997,13 +991,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -1026,7 +1020,7 @@
         <v>34.317990000000002</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F2" s="1">
         <v>10101</v>
@@ -1049,7 +1043,7 @@
         <v>34.398949999999999</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F3" s="1">
         <v>10102</v>
@@ -1066,13 +1060,13 @@
         <v>17</v>
       </c>
       <c r="C4">
-        <v>110.2888664</v>
+        <v>110.2531233</v>
       </c>
       <c r="D4">
-        <v>34.5963882</v>
+        <v>34.602376399999997</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F4" s="1">
         <v>10103</v>
@@ -1083,10 +1077,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>109.14697</v>
@@ -1095,7 +1089,7 @@
         <v>34.239269999999998</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F5" s="1">
         <v>10104</v>
@@ -1106,10 +1100,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
       </c>
       <c r="C6">
         <v>110.0956</v>
@@ -1118,21 +1112,21 @@
         <v>34.567700000000002</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F6" s="1">
         <v>10105</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>109.85004000000001</v>
@@ -1141,7 +1135,7 @@
         <v>34.535559999999997</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F7" s="1">
         <v>10106</v>
@@ -1152,10 +1146,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>110.73206</v>
@@ -1164,7 +1158,7 @@
         <v>34.591430000000003</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F8" s="1">
         <v>10107</v>
@@ -1175,19 +1169,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C9">
-        <v>109.55194640000001</v>
+        <v>109.52199229999999</v>
       </c>
       <c r="D9">
-        <v>34.543878200000002</v>
+        <v>34.517081400000002</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1">
         <v>10108</v>
@@ -1198,10 +1192,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C10">
         <v>109.06288000000001</v>
@@ -1210,7 +1204,7 @@
         <v>34.213410000000003</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F10" s="1">
         <v>10109</v>
@@ -1221,19 +1215,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11">
-        <v>108.8564604</v>
+        <v>108.817961</v>
       </c>
       <c r="D11">
-        <v>34.330018299999999</v>
+        <v>34.360760399999997</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F11" s="1">
         <v>10110</v>
@@ -1244,10 +1238,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C12">
         <v>109.06952</v>
@@ -1256,21 +1250,21 @@
         <v>34.360340000000001</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F12" s="1">
         <v>10111</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C13">
         <v>108.92207999999999</v>
@@ -1279,13 +1273,13 @@
         <v>34.1845</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F13" s="1">
         <v>10112</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
